--- a/00_Document/02_Basic_Design/設計書_機能画面API一覧.xlsx
+++ b/00_Document/02_Basic_Design/設計書_機能画面API一覧.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HL\Desktop\OJT Project (Restaurant Management)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5DA8F5-2037-4A2A-B6BB-9E44A6F3518A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F135BCE5-864D-416B-9886-BCDE414A2890}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="screen list" sheetId="2" r:id="rId1"/>
     <sheet name="API" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>高家軼</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{F0FB9356-4A00-4FEA-B459-0D6F0D39D589}">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="103">
   <si>
     <t>staff</t>
   </si>
@@ -178,9 +172,6 @@
     <t>/order_list</t>
   </si>
   <si>
-    <t>/attendance</t>
-  </si>
-  <si>
     <t>フード一覧</t>
   </si>
   <si>
@@ -202,9 +193,6 @@
     <t>チェックアウト</t>
   </si>
   <si>
-    <t>出席</t>
-  </si>
-  <si>
     <t>API一覧</t>
   </si>
   <si>
@@ -376,28 +364,19 @@
     <t>注文一覧（管理用）</t>
   </si>
   <si>
-    <t>（管理用）カテゴリー一覧</t>
-  </si>
-  <si>
-    <t>/api/admin/category</t>
-  </si>
-  <si>
-    <t>カテゴリ一覧（管理用）</t>
-  </si>
-  <si>
-    <t>/api/admin/category/create</t>
-  </si>
-  <si>
-    <t>/api/admin/category/update/{id}</t>
-  </si>
-  <si>
-    <t>/api/admin/category/delete/{id}</t>
+    <t>カテゴリー一覧</t>
+  </si>
+  <si>
+    <t>/api/category</t>
+  </si>
+  <si>
+    <t>カテゴリ一覧</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -939,7 +918,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{C5F71C65-9105-46BC-871F-9284AB48C310}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1243,33 +1222,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8064DB-6FBE-4682-9BBD-6D81491B43F4}">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25">
+    <row r="1" spans="1:10" ht="26">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1283,7 +1260,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="40.5">
+    <row r="2" spans="1:10" ht="39">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1315,7 +1292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75">
+    <row r="3" spans="1:10" ht="18">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1343,7 +1320,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75">
+    <row r="4" spans="1:10" ht="18">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1371,7 +1348,7 @@
       <c r="I4" s="13"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75">
+    <row r="5" spans="1:10" ht="18">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -1412,7 +1389,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>14</v>
@@ -1421,7 +1398,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>28</v>
@@ -1442,7 +1419,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
@@ -1451,7 +1428,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>27</v>
@@ -1472,7 +1449,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>14</v>
@@ -1481,7 +1458,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>29</v>
@@ -1502,7 +1479,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>14</v>
@@ -1511,7 +1488,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>30</v>
@@ -1532,7 +1509,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>14</v>
@@ -1541,7 +1518,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>32</v>
@@ -1592,7 +1569,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>14</v>
@@ -1601,7 +1578,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>33</v>
@@ -1622,7 +1599,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>14</v>
@@ -1631,7 +1608,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>35</v>
@@ -1652,7 +1629,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>14</v>
@@ -1661,7 +1638,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>34</v>
@@ -1700,36 +1677,6 @@
         <v>31</v>
       </c>
       <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1739,29 +1686,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEF830D-BFB5-4B89-82B5-8AA0474A12FA}">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.7265625" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="30.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A1" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -1772,127 +1717,129 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A2" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="H2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="I2" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="37" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="25" customHeight="1" thickBot="1">
+      <c r="A3" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>56</v>
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="4" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A4" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="40"/>
     </row>
-    <row r="5" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="5" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A5" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>62</v>
+      </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="6" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A6" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
     </row>
-    <row r="7" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="7" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A7" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>68</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>25</v>
@@ -1902,36 +1849,36 @@
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
     </row>
-    <row r="8" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="8" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A8" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>69</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>71</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
     </row>
-    <row r="9" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A9" s="38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="39" t="s">
@@ -1942,53 +1889,55 @@
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
     </row>
-    <row r="10" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A10" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
     </row>
-    <row r="11" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A11" s="38" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+        <v>54</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="44"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
     </row>
-    <row r="12" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A12" s="38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -1997,159 +1946,157 @@
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A13" s="38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D13" s="40"/>
-      <c r="E13" s="39" t="s">
-        <v>64</v>
-      </c>
+      <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
     </row>
-    <row r="14" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A14" s="38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>68</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D14" s="40"/>
       <c r="E14" s="39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A15" s="38" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
     </row>
-    <row r="16" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="16" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A16" s="38" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="44"/>
+        <v>84</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
     </row>
-    <row r="17" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="17" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A17" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="46" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>62</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
     </row>
-    <row r="18" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="18" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A18" s="38" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>68</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D18" s="42"/>
       <c r="E18" s="46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
     </row>
-    <row r="19" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="19" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A19" s="38" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="47"/>
+        <v>66</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>90</v>
+      </c>
       <c r="F19" s="44"/>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
     </row>
-    <row r="20" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="20" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A20" s="38" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="44"/>
@@ -2157,100 +2104,43 @@
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="21" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A21" s="38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="45" t="s">
-        <v>101</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="47"/>
       <c r="F21" s="44"/>
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="22" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A22" s="38" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="42"/>
-      <c r="E22" s="46" t="s">
-        <v>104</v>
+      <c r="E22" s="45" t="s">
+        <v>99</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
-    </row>
-    <row r="23" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A23" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-    </row>
-    <row r="24" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A24" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-    </row>
-    <row r="25" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A25" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
